--- a/assets/results/winter-league-2023-2024/LVAC-Final-Winter-League-2023-24.xlsx
+++ b/assets/results/winter-league-2023-2024/LVAC-Final-Winter-League-2023-24.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liffeyvalleyac/Library/Mobile Documents/com~apple~CloudDocs/GitHub/LiffeyValleyAC.github.io/assets/results/winter-league-2023-2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16CEA9-DE54-D047-9BEC-B90BBD1C5DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34E2B7F-A304-1840-9563-3EE0AB025848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00A86852-E2FD-9042-B166-F46FB76A8DC4}"/>
   </bookViews>
@@ -970,9 +970,6 @@
     <t>16m 20s</t>
   </si>
   <si>
-    <t>Colin G</t>
-  </si>
-  <si>
     <t>16m 56s</t>
   </si>
   <si>
@@ -1010,6 +1007,9 @@
   </si>
   <si>
     <t>Lowest Score</t>
+  </si>
+  <si>
+    <t>Colin Garrigan</t>
   </si>
 </sst>
 </file>
@@ -1234,9 +1234,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1256,9 +1253,6 @@
     <xf numFmtId="1" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1273,73 +1267,31 @@
     <xf numFmtId="1" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="269">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
+  <dxfs count="173">
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
@@ -1988,11 +1940,212 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF3266FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FFFF0000"/>
       </font>
     </dxf>
@@ -2000,120 +2153,6 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
     </dxf>
     <dxf>
       <border>
@@ -2160,6 +2199,376 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="bottom"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="13"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFFFF00"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFFFF00"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFFFF00"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFFFF00"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FFFFFF00"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FFFFFF00"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color indexed="12"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF3366FF"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -2182,376 +2591,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color indexed="64"/>
@@ -2596,763 +2635,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="16"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF3266FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="bottom"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="13"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFFFFF00"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFFFFF00"/>
-        </right>
-        <top style="thin">
-          <color rgb="FFFFFF00"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FFFFFF00"/>
-        </bottom>
-        <vertical style="thin">
-          <color rgb="FFFFFF00"/>
-        </vertical>
-        <horizontal style="thin">
-          <color rgb="FFFFFF00"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="14"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color indexed="12"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor indexed="13"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFFFFFF"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FF3366FF"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -3380,7 +2662,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="liffeyvalleyac" refreshedDate="45392.949934374999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{1FEC08E5-A40F-424C-BAB5-5F69D4A608BB}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="liffeyvalleyac" refreshedDate="45394.822788310186" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="133" xr:uid="{1FEC08E5-A40F-424C-BAB5-5F69D4A608BB}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F134" sheet="Results"/>
   </cacheSource>
@@ -3403,7 +2685,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="34"/>
     </cacheField>
     <cacheField name="Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="61">
+      <sharedItems containsBlank="1" count="62">
         <s v="John Touhy"/>
         <s v="Eddie McGrath"/>
         <s v="Pat Collins"/>
@@ -3460,9 +2742,10 @@
         <s v="Ciara Broderick Farrell"/>
         <s v="Conor Doyle"/>
         <s v="Ellen Cronin"/>
-        <s v="Colin G"/>
+        <s v="Colin Garrigan"/>
         <s v="James Foley"/>
         <s v="Neil Duffy"/>
+        <s v="Colin G" u="1"/>
         <m u="1"/>
         <s v="Oisin Murphy" u="1"/>
       </sharedItems>
@@ -4570,7 +3853,7 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0" sortType="descending">
-      <items count="62">
+      <items count="63">
         <item x="29"/>
         <item x="6"/>
         <item x="34"/>
@@ -4596,7 +3879,7 @@
         <item x="33"/>
         <item x="28"/>
         <item x="37"/>
-        <item m="1" x="60"/>
+        <item m="1" x="61"/>
         <item x="20"/>
         <item x="38"/>
         <item x="2"/>
@@ -4628,10 +3911,11 @@
         <item x="53"/>
         <item x="54"/>
         <item x="55"/>
-        <item x="56"/>
+        <item m="1" x="59"/>
         <item x="57"/>
         <item x="58"/>
-        <item m="1" x="59"/>
+        <item m="1" x="60"/>
+        <item x="56"/>
         <item t="default"/>
       </items>
       <autoSortScope>
@@ -4817,7 +4101,7 @@
       <x v="31"/>
     </i>
     <i>
-      <x v="57"/>
+      <x v="61"/>
     </i>
     <i>
       <x v="58"/>
@@ -4864,24 +4148,24 @@
   <dataFields count="1">
     <dataField name="Sum of Points" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="86">
-    <format dxfId="268">
+  <formats count="87">
+    <format dxfId="172">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="267">
+    <format dxfId="171">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="266">
+    <format dxfId="170">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="265">
+    <format dxfId="169">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="264">
+    <format dxfId="168">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4904,7 +4188,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="263">
+    <format dxfId="167">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4914,7 +4198,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="262">
+    <format dxfId="166">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4937,7 +4221,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="261">
+    <format dxfId="165">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4947,7 +4231,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="260">
+    <format dxfId="164">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -4970,7 +4254,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="259">
+    <format dxfId="163">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -4980,38 +4264,38 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="258">
+    <format dxfId="162">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="257">
+    <format dxfId="161">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="256">
+    <format dxfId="160">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="255">
+    <format dxfId="159">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="254">
+    <format dxfId="158">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="253">
+    <format dxfId="157">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="252">
+    <format dxfId="156">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="251">
+    <format dxfId="155">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="250">
+    <format dxfId="154">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="249">
+    <format dxfId="153">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -5034,7 +4318,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="248">
+    <format dxfId="152">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -5044,30 +4328,30 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="247">
+    <format dxfId="151">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="246">
+    <format dxfId="150">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="245">
+    <format dxfId="149">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="244">
+    <format dxfId="148">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="243">
+    <format dxfId="147">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="242">
+    <format dxfId="146">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5079,7 +4363,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="241">
+    <format dxfId="145">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5091,10 +4375,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="240">
+    <format dxfId="144">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="239">
+    <format dxfId="143">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -5117,7 +4401,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="238">
+    <format dxfId="142">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -5127,23 +4411,23 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="237">
+    <format dxfId="141">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="236">
+    <format dxfId="140">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="235">
+    <format dxfId="139">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="234">
+    <format dxfId="138">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="233">
+    <format dxfId="137">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="15">
@@ -5166,7 +4450,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="232">
+    <format dxfId="136">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="2">
@@ -5176,43 +4460,43 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="231">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="230">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="229">
+    <format dxfId="133">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="228">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="227">
+    <format dxfId="131">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="226">
+    <format dxfId="130">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="225">
+    <format dxfId="129">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="224">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="223">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="18">
@@ -5238,21 +4522,21 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="222">
+    <format dxfId="126">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="221">
+    <format dxfId="125">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="220">
+    <format dxfId="124">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5264,7 +4548,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="219">
+    <format dxfId="123">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5285,35 +4569,35 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="218">
+    <format dxfId="122">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="217">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="216">
+    <format dxfId="120">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="215">
+    <format dxfId="119">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="214">
+    <format dxfId="118">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5328,39 +4612,39 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="213">
+    <format dxfId="117">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="212">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="211">
+    <format dxfId="115">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="210">
+    <format dxfId="114">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="209">
+    <format dxfId="113">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="208">
+    <format dxfId="112">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="207">
+    <format dxfId="111">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="206">
+    <format dxfId="110">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="205">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -5418,7 +4702,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="204">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="10">
@@ -5436,33 +4720,33 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="203">
+    <format dxfId="107">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="202">
+    <format dxfId="106">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="201">
+    <format dxfId="105">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="200">
+    <format dxfId="104">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="199">
+    <format dxfId="103">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="198">
+    <format dxfId="102">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="115">
+    <format dxfId="101">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="58">
@@ -5528,19 +4812,19 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="114">
+    <format dxfId="100">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="112">
+    <format dxfId="99">
       <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="110">
+    <format dxfId="98">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="108">
+    <format dxfId="97">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="107">
+    <format dxfId="96">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="50">
@@ -5598,7 +4882,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="106">
+    <format dxfId="95">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="8">
@@ -5614,17 +4898,17 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="105">
+    <format dxfId="94">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="104">
+    <format dxfId="93">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="92">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5636,7 +4920,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="91">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5648,7 +4932,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="7">
+    <format dxfId="90">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5660,7 +4944,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="89">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5672,7 +4956,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="88">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5684,7 +4968,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="87">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5692,6 +4976,15 @@
           </reference>
           <reference field="3" count="1">
             <x v="28"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="1">
+            <x v="61"/>
           </reference>
         </references>
       </pivotArea>
@@ -6012,7 +5305,7 @@
   <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J67" sqref="A1:J67"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -6025,1471 +5318,1471 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
     </row>
     <row r="7" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:10" ht="21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:10" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="24" t="s">
+      <c r="H9" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="J9" s="24" t="s">
+      <c r="I9" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="J9" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>1</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="15">
         <v>43</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>40</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>50</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16">
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>42</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15">
         <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <f>A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="15">
         <v>34</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>33</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>50</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>44</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="23">
         <v>32</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <v>10</v>
       </c>
-      <c r="I11" s="25">
+      <c r="I11" s="23">
         <v>-32</v>
       </c>
-      <c r="J11" s="16">
+      <c r="J11" s="15">
         <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <f t="shared" ref="A12:A67" si="0">A11+1</f>
         <v>3</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
+      <c r="C12" s="15"/>
+      <c r="D12" s="15">
         <v>44</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>50</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>35</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="15">
         <v>37</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
         <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="15">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="15">
         <v>35</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="23">
         <v>24</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>50</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>34</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>34</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>10</v>
       </c>
-      <c r="I13" s="25">
+      <c r="I13" s="23">
         <v>-24</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="15">
         <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16">
+      <c r="C14" s="15"/>
+      <c r="D14" s="15">
         <v>38</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="15">
         <v>50</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>38</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>23</v>
       </c>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15">
         <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="15">
         <v>45</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15">
         <v>50</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>32</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>21</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15">
         <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="15">
         <v>50</v>
       </c>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16">
+      <c r="D16" s="15"/>
+      <c r="E16" s="15">
         <v>50</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>45</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="16">
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="15">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="15">
         <v>30</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D17" s="15">
         <v>35</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="15">
         <v>50</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16">
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
         <v>29</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15">
         <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="15">
         <v>28</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="15">
         <v>26</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="15">
         <v>50</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="15">
         <v>26</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <v>20</v>
       </c>
-      <c r="H18" s="16">
+      <c r="H18" s="15">
         <v>10</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="23">
         <v>-20</v>
       </c>
-      <c r="J18" s="16">
+      <c r="J18" s="15">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="15">
         <v>23</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="15">
         <v>36</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="15">
         <v>50</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16">
+      <c r="F19" s="15"/>
+      <c r="G19" s="15">
         <v>28</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="16">
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15">
         <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15">
         <v>41</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="15">
         <v>50</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="15">
         <v>43</v>
       </c>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16">
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15">
         <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15">
         <v>42</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="15">
         <v>50</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16">
+      <c r="F21" s="15"/>
+      <c r="G21" s="15">
         <v>40</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16">
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
         <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>37</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15">
         <v>50</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16">
+      <c r="F22" s="15"/>
+      <c r="G22" s="15">
         <v>36</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16">
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15">
         <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="15">
         <v>40</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="15">
         <v>32</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="15">
         <v>50</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15">
         <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C24" s="16">
+      <c r="C24" s="15">
         <v>44</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16">
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15">
         <v>41</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>35</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16">
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="15">
         <v>25</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15">
         <v>50</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16">
+      <c r="F25" s="15"/>
+      <c r="G25" s="15">
         <v>44</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16">
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15">
         <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16">
+      <c r="C26" s="15"/>
+      <c r="D26" s="15">
         <v>45</v>
       </c>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16">
+      <c r="E26" s="15"/>
+      <c r="F26" s="15">
         <v>42</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>26</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16">
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15">
         <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15">
         <v>27</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="15">
         <v>50</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="15">
         <v>33</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16">
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15">
         <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="15">
         <v>38</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D28" s="15">
         <v>37</v>
       </c>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16">
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15">
         <v>33</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16">
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15">
         <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15">
         <v>50</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="15">
         <v>31</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>27</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16">
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15">
         <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>21</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15">
         <v>31</v>
       </c>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16">
+      <c r="E30" s="15"/>
+      <c r="F30" s="15">
         <v>39</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>31</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16">
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15">
         <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16">
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15">
         <v>50</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16">
+      <c r="F31" s="15"/>
+      <c r="G31" s="15">
         <v>50</v>
       </c>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16">
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16">
+      <c r="C32" s="15"/>
+      <c r="D32" s="15">
         <v>23</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="15">
         <v>50</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="15">
         <v>27</v>
       </c>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16">
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>24</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="16">
+      <c r="C33" s="15">
         <v>36</v>
       </c>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16">
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15">
         <v>50</v>
       </c>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16">
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15">
         <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16">
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15">
         <v>50</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="15">
         <v>36</v>
       </c>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16">
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15">
         <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>26</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="15">
         <v>26</v>
       </c>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16">
+      <c r="D35" s="15"/>
+      <c r="E35" s="15">
         <v>50</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16">
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16">
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15">
         <v>50</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16">
+      <c r="F36" s="15"/>
+      <c r="G36" s="15">
         <v>22</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16">
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="15">
         <v>32</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="15">
         <v>39</v>
       </c>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16">
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16">
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15">
         <v>29</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="15">
         <v>39</v>
       </c>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16">
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15">
         <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15">
         <v>30</v>
       </c>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16">
+      <c r="E39" s="15"/>
+      <c r="F39" s="15">
         <v>37</v>
       </c>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16">
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15">
         <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="16">
+      <c r="C40" s="15">
         <v>31</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="15">
         <v>29</v>
       </c>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15">
         <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="16">
+      <c r="A41" s="15">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="16">
+      <c r="C41" s="15">
         <v>41</v>
       </c>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16">
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15">
         <v>16</v>
       </c>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16">
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15">
         <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="15">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16">
+      <c r="C42" s="15"/>
+      <c r="D42" s="15">
         <v>50</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16">
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="17" t="s">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16">
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15">
         <v>50</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16">
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15">
         <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="15">
         <v>35</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16">
+      <c r="C44" s="15"/>
+      <c r="D44" s="15">
         <v>28</v>
       </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15">
         <v>18</v>
       </c>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16">
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="16">
+      <c r="A45" s="15">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16">
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15">
         <v>45</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16">
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15">
         <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="15">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16">
+      <c r="C46" s="15"/>
+      <c r="D46" s="15">
         <v>25</v>
       </c>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16">
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15">
         <v>19</v>
       </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16">
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="16">
+      <c r="A47" s="15">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16">
+      <c r="C47" s="15"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15">
         <v>43</v>
       </c>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15">
         <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16"/>
-      <c r="B48" s="15" t="s">
+      <c r="A48" s="15"/>
+      <c r="B48" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16">
+      <c r="C48" s="15"/>
+      <c r="D48" s="15">
         <v>43</v>
       </c>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15">
         <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="16">
+      <c r="A49" s="15">
         <v>40</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C49" s="16">
+      <c r="C49" s="15">
         <v>42</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16">
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15">
         <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="15">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16">
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15">
         <v>41</v>
       </c>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16">
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15">
         <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16">
+      <c r="A51" s="15">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16">
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15">
         <v>40</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16">
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15">
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="A52" s="15">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="16">
+      <c r="C52" s="15">
         <v>39</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16">
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15">
         <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="16">
+      <c r="A53" s="15">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16">
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15">
         <v>38</v>
       </c>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16">
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="15">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16">
+      <c r="C54" s="15"/>
+      <c r="D54" s="15">
         <v>34</v>
       </c>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16">
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15">
         <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="16">
+      <c r="A55" s="15">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="B55" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="16">
+      <c r="C55" s="15">
         <v>33</v>
       </c>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="16"/>
-      <c r="J55" s="16">
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15">
         <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="15">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B56" s="17" t="s">
+      <c r="B56" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16">
+      <c r="C56" s="15"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15">
         <v>30</v>
       </c>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16">
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="16"/>
-      <c r="B57" s="17" t="s">
+      <c r="A57" s="15"/>
+      <c r="B57" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16">
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15">
         <v>30</v>
       </c>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="16"/>
-      <c r="J57" s="16">
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15">
         <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="20" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58" s="15">
         <v>49</v>
       </c>
-      <c r="B58" s="15" t="s">
+      <c r="B58" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C58" s="16">
+      <c r="C58" s="15">
         <v>29</v>
       </c>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="16"/>
-      <c r="J58" s="16">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15">
         <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="16">
+      <c r="A59" s="15">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16">
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15">
         <v>28</v>
       </c>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="16"/>
-      <c r="J59" s="16">
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15">
         <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="15">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="B60" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C60" s="16">
+      <c r="C60" s="15">
         <v>27</v>
       </c>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="16"/>
-      <c r="J60" s="16">
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15">
         <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="16">
+      <c r="A61" s="15">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B61" s="17" t="s">
+      <c r="B61" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16">
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15">
         <v>25</v>
       </c>
-      <c r="H61" s="16"/>
-      <c r="I61" s="16"/>
-      <c r="J61" s="16">
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15">
         <v>25</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="A62" s="15">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B62" s="17" t="s">
+      <c r="B62" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="16">
+      <c r="C62" s="15">
         <v>24</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="16"/>
-      <c r="J62" s="16">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="17" t="s">
+      <c r="A63" s="15"/>
+      <c r="B63" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16">
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15">
         <v>24</v>
       </c>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16">
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15">
         <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="A64" s="15">
         <v>55</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="B64" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="16">
+      <c r="C64" s="15">
         <v>22</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15">
         <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="16">
+      <c r="A65" s="15">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B65" s="17" t="s">
-        <v>308</v>
-      </c>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16">
+      <c r="B65" s="14" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9">
         <v>17</v>
       </c>
-      <c r="H65" s="16"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="16">
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="A66" s="15">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B66" s="17" t="s">
-        <v>312</v>
-      </c>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16">
+      <c r="B66" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15">
         <v>15</v>
       </c>
-      <c r="H66" s="16"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="16">
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15">
         <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="16">
+      <c r="A67" s="15">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B67" s="17" t="s">
-        <v>316</v>
-      </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16">
+      <c r="B67" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="15"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15">
         <v>14</v>
       </c>
-      <c r="H67" s="16"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="16">
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15">
         <v>14</v>
       </c>
     </row>
@@ -7499,7 +6792,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -7515,28 +6808,28 @@
       <c r="B69" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C69" s="26">
         <v>854</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D69" s="26">
         <v>832</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E69" s="26">
         <v>1150</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="26">
         <v>760</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G69" s="26">
         <v>994</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="26">
         <v>30</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="26">
         <v>-76</v>
       </c>
-      <c r="J69" s="11">
+      <c r="J69" s="26">
         <v>4544</v>
       </c>
     </row>
@@ -7586,8 +6879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAC750F-14C9-DC46-A1A7-6369D3175D3A}">
   <dimension ref="A1:G134"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10115,7 +9408,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>276</v>
@@ -10460,16 +9753,16 @@
         <v>31</v>
       </c>
       <c r="D131" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E131" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>253</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -10492,7 +9785,7 @@
         <v>30</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -10506,16 +9799,16 @@
         <v>33</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E133" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -10529,16 +9822,16 @@
         <v>34</v>
       </c>
       <c r="D134" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="E134" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>319</v>
       </c>
     </row>
   </sheetData>
